--- a/Python/SIGNATE/20210818_【SOTA】マイナビ × SIGNATE Student Cup 2019 賃貸物件の家賃予測/test_duplicate_rentvalue.xlsx
+++ b/Python/SIGNATE/20210818_【SOTA】マイナビ × SIGNATE Student Cup 2019 賃貸物件の家賃予測/test_duplicate_rentvalue.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b21155a62fdad677/ドキュメント/GitHub/KY/Python/SIGNATE/20210818_【SOTA】マイナビ × SIGNATE Student Cup 2019 賃貸物件の家賃予測/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{9C867455-F49C-4F51-A971-067294D77E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F368574A-44EE-4AA8-8367-127F2F4B29A9}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{9C867455-F49C-4F51-A971-067294D77E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C08D203-01BF-4FDF-AA5F-A75A1C22662B}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2220" windowWidth="15210" windowHeight="13890" xr2:uid="{E9C2728B-CBED-4873-ABBB-226262FB20CA}"/>
   </bookViews>
@@ -30,9 +30,9 @@
     <t>id</t>
   </si>
   <si>
-    <t>予測結果</t>
-    <rPh sb="0" eb="4">
-      <t>ヨソクケッカ</t>
+    <t>賃料</t>
+    <rPh sb="0" eb="2">
+      <t>チンリョウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
